--- a/notebooks/assets/test_random_selection/RFnh3_st0_1_mountains.xlsx
+++ b/notebooks/assets/test_random_selection/RFnh3_st0_1_mountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.648</v>
+        <v>4.601</v>
       </c>
       <c r="C2" t="n">
-        <v>1.979</v>
+        <v>2.037</v>
       </c>
       <c r="D2" t="n">
-        <v>3.058</v>
+        <v>2.401</v>
       </c>
       <c r="E2" t="n">
-        <v>5.771</v>
+        <v>3.634</v>
       </c>
       <c r="F2" t="n">
-        <v>1.887</v>
+        <v>1.932</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.375</v>
+        <v>5.827</v>
       </c>
       <c r="C3" t="n">
-        <v>2.784</v>
+        <v>2.809</v>
       </c>
       <c r="D3" t="n">
-        <v>4.042</v>
+        <v>3.325</v>
       </c>
       <c r="E3" t="n">
-        <v>7.704</v>
+        <v>5.074</v>
       </c>
       <c r="F3" t="n">
-        <v>3.108</v>
+        <v>2.883</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55.204</v>
+        <v>35.506</v>
       </c>
       <c r="C4" t="n">
-        <v>8.025</v>
+        <v>8.007999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>16.781</v>
+        <v>11.853</v>
       </c>
       <c r="E4" t="n">
-        <v>59.686</v>
+        <v>26.633</v>
       </c>
       <c r="F4" t="n">
-        <v>11.246</v>
+        <v>9.053000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8</v>
+        <v>0.853</v>
       </c>
       <c r="C5" t="n">
-        <v>0.824</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.878</v>
+        <v>0.922</v>
       </c>
       <c r="E5" t="n">
-        <v>0.745</v>
+        <v>0.854</v>
       </c>
       <c r="F5" t="n">
-        <v>0.836</v>
+        <v>0.801</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14.988</v>
+        <v>14.956</v>
       </c>
       <c r="C6" t="n">
-        <v>10.764</v>
+        <v>10.748</v>
       </c>
       <c r="D6" t="n">
-        <v>8.15</v>
+        <v>8.166</v>
       </c>
       <c r="E6" t="n">
-        <v>10.323</v>
+        <v>10.326</v>
       </c>
       <c r="F6" t="n">
-        <v>9.167999999999999</v>
+        <v>9.163</v>
       </c>
     </row>
     <row r="7">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.469</v>
+        <v>16.458</v>
       </c>
       <c r="C7" t="n">
-        <v>11.639</v>
+        <v>11.633</v>
       </c>
       <c r="D7" t="n">
-        <v>11.891</v>
+        <v>12.027</v>
       </c>
       <c r="E7" t="n">
-        <v>13.763</v>
+        <v>13.395</v>
       </c>
       <c r="F7" t="n">
-        <v>10.107</v>
+        <v>10.105</v>
       </c>
     </row>
     <row r="8">
@@ -599,19 +599,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>273.323</v>
+        <v>272.549</v>
       </c>
       <c r="C8" t="n">
-        <v>136.016</v>
+        <v>135.617</v>
       </c>
       <c r="D8" t="n">
-        <v>149.738</v>
+        <v>149.976</v>
       </c>
       <c r="E8" t="n">
-        <v>193.933</v>
+        <v>194.43</v>
       </c>
       <c r="F8" t="n">
-        <v>103.077</v>
+        <v>102.945</v>
       </c>
     </row>
     <row r="9">
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.061</v>
+        <v>-0.462</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.047</v>
+        <v>-2.048</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.008999999999999999</v>
+        <v>0.013</v>
       </c>
       <c r="E9" t="n">
-        <v>0.212</v>
+        <v>0.139</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.287</v>
+        <v>-1.066</v>
       </c>
     </row>
   </sheetData>
